--- a/NewapprovalCus.xlsx
+++ b/NewapprovalCus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C51B6C0-F8A3-441E-AD41-C1AA926EEA70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709C5409-D6F9-47AD-8642-0415ECD92415}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="1830" windowWidth="15375" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>

--- a/NewapprovalCus.xlsx
+++ b/NewapprovalCus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709C5409-D6F9-47AD-8642-0415ECD92415}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EA4CE0-0D84-40EB-A231-6D622F7F8909}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="1830" windowWidth="15375" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
